--- a/Papilddati/EGV_names.xlsx
+++ b/Papilddati/EGV_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrisavotins/Documents/projekti/LVAFA_SDMs/Darbam/LVAFA_SDMs/Rastri_100m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBA3DD-56E4-004B-A0BA-914E5C4D465A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED5D329-95C0-574B-8A6C-40C86E79B0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36520" yWindow="1660" windowWidth="23500" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25740" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="765">
   <si>
     <t>faili</t>
   </si>
@@ -449,6 +449,12 @@
     <t>dist_Jura_vid.tif</t>
   </si>
   <si>
+    <t>./Rastri_100m/RAW//dist_Udeni_vid.tif</t>
+  </si>
+  <si>
+    <t>dist_Udeni_vid.tif</t>
+  </si>
+  <si>
     <t>./Rastri_100m/RAW//dist_ZalajiIlggadigie_vid.tif</t>
   </si>
   <si>
@@ -599,6 +605,12 @@
     <t>Lauku_AramParejas_cell.tif</t>
   </si>
   <si>
+    <t>./Rastri_100m/RAW//Lauku_AramParejas_r10000.tif</t>
+  </si>
+  <si>
+    <t>Lauku_AramParejas_r10000.tif</t>
+  </si>
+  <si>
     <t>./Rastri_100m/RAW//Lauku_AramParejas_r1250.tif</t>
   </si>
   <si>
@@ -2087,238 +2099,235 @@
     <t>Climate_YearPrecSum_cell.tif</t>
   </si>
   <si>
+    <t>Dist_Apbuve-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>Dist_Atkritumi-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>Dist_AtkritumuPoligoni-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>Dist_DzilumsMezos-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>Dist_Jura-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>Dist_ZalajiIlggadigie-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDVI-LYmed-iqr_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDVI-LYmed-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDVI-STiqr-med_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDVI-STmed-iqr_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDVI-STmed-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDVI-STp25-min_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDVI-STp75-max_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDWI-LYmed-iqr_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDWI-LYmed-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDWI-STiqr-med_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDWI-STmed-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDWI-STp25-min_cell.tif</t>
+  </si>
+  <si>
+    <t>EO_NDWI-STp75-max_cell.tif</t>
+  </si>
+  <si>
+    <t>Malas_Apbuve-Koki_cell.tif</t>
+  </si>
+  <si>
+    <t>Malas_Apbuve-Koki_r10000.tif</t>
+  </si>
+  <si>
+    <t>Malas_Apbuve-Koki_r1250.tif</t>
+  </si>
+  <si>
+    <t>Malas_Apbuve-Koki_r3000.tif</t>
+  </si>
+  <si>
+    <t>Malas_Apbuve-Koki_r500.tif</t>
+  </si>
+  <si>
+    <t>Malas_Apbuve-LIZ_cell.tif</t>
+  </si>
+  <si>
+    <t>Malas_Apbuve-LIZ_r10000.tif</t>
+  </si>
+  <si>
+    <t>Malas_Apbuve-LIZ_r1250.tif</t>
+  </si>
+  <si>
+    <t>Malas_Apbuve-LIZ_r3000.tif</t>
+  </si>
+  <si>
+    <t>Malas_Apbuve-LIZ_r500.tif</t>
+  </si>
+  <si>
+    <t>Malas_LIZzemieKoki-Koki_cell.tif</t>
+  </si>
+  <si>
+    <t>Malas_LIZzemieKoki-Koki_r10000.tif</t>
+  </si>
+  <si>
+    <t>Malas_LIZzemieKoki-Koki_r1250.tif</t>
+  </si>
+  <si>
+    <t>Malas_LIZzemieKoki-Koki_r3000.tif</t>
+  </si>
+  <si>
+    <t>Malas_LIZzemieKoki-Koki_r500.tif</t>
+  </si>
+  <si>
+    <t>Malas_NiedrajiBebraines-Udens_cell.tif</t>
+  </si>
+  <si>
+    <t>Malas_NiedrajiBebraines-Udens_r10000.tif</t>
+  </si>
+  <si>
+    <t>Malas_NiedrajiBebraines-Udens_r1250.tif</t>
+  </si>
+  <si>
+    <t>Malas_NiedrajiBebraines-Udens_r3000.tif</t>
+  </si>
+  <si>
+    <t>Malas_NiedrajiBebraines-Udens_r500.tif</t>
+  </si>
+  <si>
+    <t>Malas_Udens-LIZ_cell.tif</t>
+  </si>
+  <si>
+    <t>Malas_Udens-LIZ_r10000.tif</t>
+  </si>
+  <si>
+    <t>Malas_Udens-LIZ_r1250.tif</t>
+  </si>
+  <si>
+    <t>Malas_Udens-LIZ_r3000.tif</t>
+  </si>
+  <si>
+    <t>Malas_Udens-LIZ_r500.tif</t>
+  </si>
+  <si>
+    <t>Malas_Udens-Zalaji_cell.tif</t>
+  </si>
+  <si>
+    <t>Malas_Udens-Zalaji_r10000.tif</t>
+  </si>
+  <si>
+    <t>Malas_Udens-Zalaji_r1250.tif</t>
+  </si>
+  <si>
+    <t>Malas_Udens-Zalaji_r3000.tif</t>
+  </si>
+  <si>
+    <t>Malas_Udens-Zalaji_r500.tif</t>
+  </si>
+  <si>
+    <t>Mezi_ApsuKraja-sum_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_BerzuKraja-sum_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_EgluKraja-sum_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_KopejaKraja-sum_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_LielakaisDiametrs-max_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_MelnalksnuKraja-sum_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_NogabalaVecumaProp-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_PlatlapjuKraja-sum_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_PriezuKraja-sum_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_SaurlapjuCKraja-sum_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_SaurlapjuVKraja-sum_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_SkujkokuKraja-sum_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_TaucLaiks-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>Mezi_ValdosaisDiametrs-max_cell.tif</t>
+  </si>
+  <si>
+    <t>Reljefs_Aspect-iqr_cell.tif</t>
+  </si>
+  <si>
+    <t>Reljefs_Aspect-mean_cell.tif</t>
+  </si>
+  <si>
+    <t>Reljefs_DiS-area_cell.tif</t>
+  </si>
+  <si>
+    <t>Reljefs_DiS-area_r10000.tif</t>
+  </si>
+  <si>
+    <t>Reljefs_DiS-area_r1250.tif</t>
+  </si>
+  <si>
+    <t>Reljefs_DiS-area_r3000.tif</t>
+  </si>
+  <si>
+    <t>Reljefs_DiS-area_r500.tif</t>
+  </si>
+  <si>
+    <t>Reljefs_DiS-max_cell.tif</t>
+  </si>
+  <si>
+    <t>Reljefs_DiS-mean_cell.tif</t>
+  </si>
+  <si>
+    <t>Reljefs_Slope-iqr_cell.tif</t>
+  </si>
+  <si>
+    <t>Reljefs_Slope-mean_cell.tif</t>
+  </si>
+  <si>
     <t>Reljefs_TWI-mean_cell.tif</t>
   </si>
   <si>
     <t>Soils_OrganicCarbon_cell.tif</t>
   </si>
   <si>
-    <t>Reljefs_Aspect-iqr_cell.tif</t>
-  </si>
-  <si>
-    <t>Reljefs_Aspect-mean_cell.tif</t>
-  </si>
-  <si>
-    <t>Reljefs_DiS-area_cell.tif</t>
-  </si>
-  <si>
-    <t>Reljefs_DiS-area_r10000.tif</t>
-  </si>
-  <si>
-    <t>Reljefs_DiS-area_r1250.tif</t>
-  </si>
-  <si>
-    <t>Reljefs_DiS-area_r3000.tif</t>
-  </si>
-  <si>
-    <t>Reljefs_DiS-area_r500.tif</t>
-  </si>
-  <si>
-    <t>Reljefs_DiS-max_cell.tif</t>
-  </si>
-  <si>
-    <t>Reljefs_DiS-mean_cell.tif</t>
-  </si>
-  <si>
-    <t>Reljefs_Slope-iqr_cell.tif</t>
-  </si>
-  <si>
-    <t>Reljefs_Slope-mean_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_TaucLaiks-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_ValdosaisDiametrs-max_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_SkujkokuKraja-sum_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_SaurlapjuVKraja-sum_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_SaurlapjuCKraja-sum_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_PriezuKraja-sum_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_PlatlapjuKraja-sum_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_NogabalaVecumaProp-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_KopejaKraja-sum_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_LielakaisDiametrs-max_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_MelnalksnuKraja-sum_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_ApsuKraja-sum_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_BerzuKraja-sum_cell.tif</t>
-  </si>
-  <si>
-    <t>Mezi_EgluKraja-sum_cell.tif</t>
-  </si>
-  <si>
-    <t>Malas_Udens-LIZ_cell.tif</t>
-  </si>
-  <si>
-    <t>Malas_Udens-LIZ_r10000.tif</t>
-  </si>
-  <si>
-    <t>Malas_Udens-LIZ_r1250.tif</t>
-  </si>
-  <si>
-    <t>Malas_Udens-LIZ_r3000.tif</t>
-  </si>
-  <si>
-    <t>Malas_Udens-LIZ_r500.tif</t>
-  </si>
-  <si>
-    <t>Malas_Udens-Zalaji_cell.tif</t>
-  </si>
-  <si>
-    <t>Malas_Udens-Zalaji_r10000.tif</t>
-  </si>
-  <si>
-    <t>Malas_Udens-Zalaji_r1250.tif</t>
-  </si>
-  <si>
-    <t>Malas_Udens-Zalaji_r3000.tif</t>
-  </si>
-  <si>
-    <t>Malas_Udens-Zalaji_r500.tif</t>
-  </si>
-  <si>
-    <t>Malas_LIZzemieKoki-Koki_cell.tif</t>
-  </si>
-  <si>
-    <t>Malas_LIZzemieKoki-Koki_r10000.tif</t>
-  </si>
-  <si>
-    <t>Malas_LIZzemieKoki-Koki_r1250.tif</t>
-  </si>
-  <si>
-    <t>Malas_LIZzemieKoki-Koki_r3000.tif</t>
-  </si>
-  <si>
-    <t>Malas_LIZzemieKoki-Koki_r500.tif</t>
-  </si>
-  <si>
-    <t>Malas_NiedrajiBebraines-Udens_cell.tif</t>
-  </si>
-  <si>
-    <t>Malas_NiedrajiBebraines-Udens_r10000.tif</t>
-  </si>
-  <si>
-    <t>Malas_NiedrajiBebraines-Udens_r1250.tif</t>
-  </si>
-  <si>
-    <t>Malas_NiedrajiBebraines-Udens_r3000.tif</t>
-  </si>
-  <si>
-    <t>Malas_NiedrajiBebraines-Udens_r500.tif</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-Koki_cell.tif</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-Koki_r10000.tif</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-Koki_r1250.tif</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-Koki_r3000.tif</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-Koki_r500.tif</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-LIZ_cell.tif</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-LIZ_r10000.tif</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-LIZ_r1250.tif</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-LIZ_r3000.tif</t>
-  </si>
-  <si>
-    <t>Malas_Apbuve-LIZ_r500.tif</t>
-  </si>
-  <si>
-    <t>Dist_Apbuve-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>Dist_Atkritumi-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>Dist_AtkritumuPoligoni-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>Dist_DzilumsMezos-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>Dist_Jura-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>Dist_ZalajiIlggadigie-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDVI-LYmed-iqr_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDVI-LYmed-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDVI-STiqr-med_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDVI-STmed-iqr_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDVI-STmed-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDVI-STp25-min_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDVI-STp75-max_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDWI-LYmed-iqr_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDWI-LYmed-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDWI-STiqr-med_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDWI-STmed-vid_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDWI-STp25-min_cell.tif</t>
-  </si>
-  <si>
-    <t>EO_NDWI-STp75-max_cell.tif</t>
-  </si>
-  <si>
-    <t>Lauku_AramParejas_r10000.tif</t>
-  </si>
-  <si>
-    <t>./Rastri_100m/RAW//Lauku_AramParejas_r10000.tif</t>
+    <t>Dist_Udeni-vid_cell.tif</t>
   </si>
 </sst>
 </file>
@@ -2652,16 +2661,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F338"/>
+  <dimension ref="A1:F339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="E339" sqref="E339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="5" max="6" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2679,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F1" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3532,10 +3540,10 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F46" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3549,10 +3557,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F47" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3566,10 +3574,10 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F48" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3583,10 +3591,10 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F49" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3600,10 +3608,10 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F50" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3617,10 +3625,10 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F51" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3862,10 +3870,10 @@
         <v>1158</v>
       </c>
       <c r="E64" t="s">
-        <v>741</v>
+        <v>688</v>
       </c>
       <c r="F64" t="s">
-        <v>741</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3876,10 +3884,10 @@
         <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>742</v>
+        <v>689</v>
       </c>
       <c r="F65" t="s">
-        <v>742</v>
+        <v>689</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3890,10 +3898,10 @@
         <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>743</v>
+        <v>690</v>
       </c>
       <c r="F66" t="s">
-        <v>743</v>
+        <v>690</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3907,10 +3915,10 @@
         <v>1158</v>
       </c>
       <c r="E67" t="s">
-        <v>744</v>
+        <v>691</v>
       </c>
       <c r="F67" t="s">
-        <v>744</v>
+        <v>691</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3924,10 +3932,10 @@
         <v>1158</v>
       </c>
       <c r="E68" t="s">
-        <v>745</v>
+        <v>692</v>
       </c>
       <c r="F68" t="s">
-        <v>745</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3941,10 +3949,10 @@
         <v>1158</v>
       </c>
       <c r="E69" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="F69" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3955,13 +3963,13 @@
         <v>141</v>
       </c>
       <c r="C70">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E70" t="s">
-        <v>747</v>
+        <v>693</v>
       </c>
       <c r="F70" t="s">
-        <v>747</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3975,10 +3983,10 @@
         <v>1160</v>
       </c>
       <c r="E71" t="s">
-        <v>748</v>
+        <v>694</v>
       </c>
       <c r="F71" t="s">
-        <v>748</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3989,13 +3997,13 @@
         <v>145</v>
       </c>
       <c r="C72">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E72" t="s">
-        <v>749</v>
+        <v>695</v>
       </c>
       <c r="F72" t="s">
-        <v>749</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4009,10 +4017,10 @@
         <v>1158</v>
       </c>
       <c r="E73" t="s">
-        <v>750</v>
+        <v>696</v>
       </c>
       <c r="F73" t="s">
-        <v>750</v>
+        <v>696</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4026,10 +4034,10 @@
         <v>1158</v>
       </c>
       <c r="E74" t="s">
-        <v>751</v>
+        <v>697</v>
       </c>
       <c r="F74" t="s">
-        <v>751</v>
+        <v>697</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4043,10 +4051,10 @@
         <v>1158</v>
       </c>
       <c r="E75" t="s">
-        <v>752</v>
+        <v>698</v>
       </c>
       <c r="F75" t="s">
-        <v>752</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4060,10 +4068,10 @@
         <v>1158</v>
       </c>
       <c r="E76" t="s">
-        <v>753</v>
+        <v>699</v>
       </c>
       <c r="F76" t="s">
-        <v>753</v>
+        <v>699</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4074,13 +4082,13 @@
         <v>155</v>
       </c>
       <c r="C77">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E77" t="s">
-        <v>754</v>
+        <v>700</v>
       </c>
       <c r="F77" t="s">
-        <v>754</v>
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4094,10 +4102,10 @@
         <v>1160</v>
       </c>
       <c r="E78" t="s">
-        <v>755</v>
+        <v>701</v>
       </c>
       <c r="F78" t="s">
-        <v>755</v>
+        <v>701</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4108,13 +4116,13 @@
         <v>159</v>
       </c>
       <c r="C79">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E79" t="s">
-        <v>756</v>
+        <v>702</v>
       </c>
       <c r="F79" t="s">
-        <v>756</v>
+        <v>702</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4128,10 +4136,10 @@
         <v>1158</v>
       </c>
       <c r="E80" t="s">
-        <v>757</v>
+        <v>703</v>
       </c>
       <c r="F80" t="s">
-        <v>757</v>
+        <v>703</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4145,10 +4153,10 @@
         <v>1158</v>
       </c>
       <c r="E81" t="s">
-        <v>758</v>
+        <v>704</v>
       </c>
       <c r="F81" t="s">
-        <v>758</v>
+        <v>704</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4162,10 +4170,10 @@
         <v>1158</v>
       </c>
       <c r="E82" t="s">
-        <v>759</v>
+        <v>705</v>
       </c>
       <c r="F82" t="s">
-        <v>759</v>
+        <v>705</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4178,13 +4186,11 @@
       <c r="C83">
         <v>1158</v>
       </c>
-      <c r="E83" t="str">
-        <f t="shared" ref="E83:E146" si="4">B83</f>
-        <v>Lauku_AramLabibaVasaraji_cell.tif</v>
-      </c>
-      <c r="F83" t="str">
-        <f t="shared" ref="F83:F146" si="5">E83</f>
-        <v>Lauku_AramLabibaVasaraji_cell.tif</v>
+      <c r="E83" t="s">
+        <v>706</v>
+      </c>
+      <c r="F83" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4195,15 +4201,15 @@
         <v>169</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramLabibaVasaraji_r10000.tif</v>
+        <f>B84</f>
+        <v>Lauku_AramLabibaVasaraji_cell.tif</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramLabibaVasaraji_r10000.tif</v>
+        <f>E84</f>
+        <v>Lauku_AramLabibaVasaraji_cell.tif</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4217,12 +4223,12 @@
         <v>2</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramLabibaVasaraji_r1250.tif</v>
+        <f>B85</f>
+        <v>Lauku_AramLabibaVasaraji_r10000.tif</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramLabibaVasaraji_r1250.tif</v>
+        <f>E85</f>
+        <v>Lauku_AramLabibaVasaraji_r10000.tif</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4236,12 +4242,12 @@
         <v>2</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramLabibaVasaraji_r3000.tif</v>
+        <f>B86</f>
+        <v>Lauku_AramLabibaVasaraji_r1250.tif</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramLabibaVasaraji_r3000.tif</v>
+        <f>E86</f>
+        <v>Lauku_AramLabibaVasaraji_r1250.tif</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4255,12 +4261,12 @@
         <v>2</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramLabibaVasaraji_r500.tif</v>
+        <f>B87</f>
+        <v>Lauku_AramLabibaVasaraji_r3000.tif</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramLabibaVasaraji_r500.tif</v>
+        <f>E87</f>
+        <v>Lauku_AramLabibaVasaraji_r3000.tif</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4271,15 +4277,15 @@
         <v>177</v>
       </c>
       <c r="C88">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramLabibaZiemaji_cell.tif</v>
+        <f>B88</f>
+        <v>Lauku_AramLabibaVasaraji_r500.tif</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramLabibaZiemaji_cell.tif</v>
+        <f>E88</f>
+        <v>Lauku_AramLabibaVasaraji_r500.tif</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4290,15 +4296,15 @@
         <v>179</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramLabibaZiemaji_r10000.tif</v>
+        <f>B89</f>
+        <v>Lauku_AramLabibaZiemaji_cell.tif</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramLabibaZiemaji_r10000.tif</v>
+        <f>E89</f>
+        <v>Lauku_AramLabibaZiemaji_cell.tif</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4312,12 +4318,12 @@
         <v>2</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramLabibaZiemaji_r1250.tif</v>
+        <f>B90</f>
+        <v>Lauku_AramLabibaZiemaji_r10000.tif</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramLabibaZiemaji_r1250.tif</v>
+        <f>E90</f>
+        <v>Lauku_AramLabibaZiemaji_r10000.tif</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4331,12 +4337,12 @@
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramLabibaZiemaji_r3000.tif</v>
+        <f>B91</f>
+        <v>Lauku_AramLabibaZiemaji_r1250.tif</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramLabibaZiemaji_r3000.tif</v>
+        <f>E91</f>
+        <v>Lauku_AramLabibaZiemaji_r1250.tif</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4350,4572 +4356,4591 @@
         <v>2</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramLabibaZiemaji_r500.tif</v>
+        <f>B92</f>
+        <v>Lauku_AramLabibaZiemaji_r3000.tif</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramLabibaZiemaji_r500.tif</v>
+        <f>E92</f>
+        <v>Lauku_AramLabibaZiemaji_r3000.tif</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>761</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>760</v>
+        <v>187</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="E93" t="str">
         <f>B93</f>
-        <v>Lauku_AramParejas_r10000.tif</v>
+        <v>Lauku_AramLabibaZiemaji_r500.tif</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramParejas_r10000.tif</v>
+        <f>E93</f>
+        <v>Lauku_AramLabibaZiemaji_r500.tif</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C94">
         <v>1158</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="4"/>
+        <f>B94</f>
         <v>Lauku_AramParejas_cell.tif</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="5"/>
+        <f>E94</f>
         <v>Lauku_AramParejas_cell.tif</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramParejas_r1250.tif</v>
+        <f>B95</f>
+        <v>Lauku_AramParejas_r10000.tif</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramParejas_r1250.tif</v>
+        <f>E95</f>
+        <v>Lauku_AramParejas_r10000.tif</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramParejas_r3000.tif</v>
+        <f>B96</f>
+        <v>Lauku_AramParejas_r1250.tif</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramParejas_r3000.tif</v>
+        <f>E96</f>
+        <v>Lauku_AramParejas_r1250.tif</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramParejas_r500.tif</v>
+        <f>B97</f>
+        <v>Lauku_AramParejas_r3000.tif</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramParejas_r500.tif</v>
+        <f>E97</f>
+        <v>Lauku_AramParejas_r3000.tif</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C98">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVaguRusinamas_cell.tif</v>
+        <f>B98</f>
+        <v>Lauku_AramParejas_r500.tif</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVaguRusinamas_cell.tif</v>
+        <f>E98</f>
+        <v>Lauku_AramParejas_r500.tif</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVaguRusinamas_r10000.tif</v>
+        <f>B99</f>
+        <v>Lauku_AramVaguRusinamas_cell.tif</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVaguRusinamas_r10000.tif</v>
+        <f>E99</f>
+        <v>Lauku_AramVaguRusinamas_cell.tif</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVaguRusinamas_r1250.tif</v>
+        <f>B100</f>
+        <v>Lauku_AramVaguRusinamas_r10000.tif</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVaguRusinamas_r1250.tif</v>
+        <f>E100</f>
+        <v>Lauku_AramVaguRusinamas_r10000.tif</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVaguRusinamas_r3000.tif</v>
+        <f>B101</f>
+        <v>Lauku_AramVaguRusinamas_r1250.tif</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVaguRusinamas_r3000.tif</v>
+        <f>E101</f>
+        <v>Lauku_AramVaguRusinamas_r1250.tif</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVaguRusinamas_r500.tif</v>
+        <f>B102</f>
+        <v>Lauku_AramVaguRusinamas_r3000.tif</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVaguRusinamas_r500.tif</v>
+        <f>E102</f>
+        <v>Lauku_AramVaguRusinamas_r3000.tif</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C103">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVasarasRapsiUTML_cell.tif</v>
+        <f>B103</f>
+        <v>Lauku_AramVaguRusinamas_r500.tif</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVasarasRapsiUTML_cell.tif</v>
+        <f>E103</f>
+        <v>Lauku_AramVaguRusinamas_r500.tif</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVasarasRapsiUTML_r10000.tif</v>
+        <f>B104</f>
+        <v>Lauku_AramVasarasRapsiUTML_cell.tif</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVasarasRapsiUTML_r10000.tif</v>
+        <f>E104</f>
+        <v>Lauku_AramVasarasRapsiUTML_cell.tif</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVasarasRapsiUTML_r1250.tif</v>
+        <f>B105</f>
+        <v>Lauku_AramVasarasRapsiUTML_r10000.tif</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVasarasRapsiUTML_r1250.tif</v>
+        <f>E105</f>
+        <v>Lauku_AramVasarasRapsiUTML_r10000.tif</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVasarasRapsiUTML_r3000.tif</v>
+        <f>B106</f>
+        <v>Lauku_AramVasarasRapsiUTML_r1250.tif</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVasarasRapsiUTML_r3000.tif</v>
+        <f>E106</f>
+        <v>Lauku_AramVasarasRapsiUTML_r1250.tif</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVasarasRapsiUTML_r500.tif</v>
+        <f>B107</f>
+        <v>Lauku_AramVasarasRapsiUTML_r3000.tif</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVasarasRapsiUTML_r500.tif</v>
+        <f>E107</f>
+        <v>Lauku_AramVasarasRapsiUTML_r3000.tif</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C108">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVisas_cell.tif</v>
+        <f>B108</f>
+        <v>Lauku_AramVasarasRapsiUTML_r500.tif</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVisas_cell.tif</v>
+        <f>E108</f>
+        <v>Lauku_AramVasarasRapsiUTML_r500.tif</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVisas_r10000.tif</v>
+        <f>B109</f>
+        <v>Lauku_AramVisas_cell.tif</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVisas_r10000.tif</v>
+        <f>E109</f>
+        <v>Lauku_AramVisas_cell.tif</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVisas_r1250.tif</v>
+        <f>B110</f>
+        <v>Lauku_AramVisas_r10000.tif</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVisas_r1250.tif</v>
+        <f>E110</f>
+        <v>Lauku_AramVisas_r10000.tif</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVisas_r3000.tif</v>
+        <f>B111</f>
+        <v>Lauku_AramVisas_r1250.tif</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVisas_r3000.tif</v>
+        <f>E111</f>
+        <v>Lauku_AramVisas_r1250.tif</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramVisas_r500.tif</v>
+        <f>B112</f>
+        <v>Lauku_AramVisas_r3000.tif</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramVisas_r500.tif</v>
+        <f>E112</f>
+        <v>Lauku_AramVisas_r3000.tif</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C113">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramZiemasRapsi_cell.tif</v>
+        <f>B113</f>
+        <v>Lauku_AramVisas_r500.tif</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramZiemasRapsi_cell.tif</v>
+        <f>E113</f>
+        <v>Lauku_AramVisas_r500.tif</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramZiemasRapsi_r10000.tif</v>
+        <f>B114</f>
+        <v>Lauku_AramZiemasRapsi_cell.tif</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramZiemasRapsi_r10000.tif</v>
+        <f>E114</f>
+        <v>Lauku_AramZiemasRapsi_cell.tif</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramZiemasRapsi_r1250.tif</v>
+        <f>B115</f>
+        <v>Lauku_AramZiemasRapsi_r10000.tif</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramZiemasRapsi_r1250.tif</v>
+        <f>E115</f>
+        <v>Lauku_AramZiemasRapsi_r10000.tif</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramZiemasRapsi_r3000.tif</v>
+        <f>B116</f>
+        <v>Lauku_AramZiemasRapsi_r1250.tif</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramZiemasRapsi_r3000.tif</v>
+        <f>E116</f>
+        <v>Lauku_AramZiemasRapsi_r1250.tif</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AramZiemasRapsi_r500.tif</v>
+        <f>B117</f>
+        <v>Lauku_AramZiemasRapsi_r3000.tif</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AramZiemasRapsi_r500.tif</v>
+        <f>E117</f>
+        <v>Lauku_AramZiemasRapsi_r3000.tif</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C118">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AugludarziLAD_cell.tif</v>
+        <f>B118</f>
+        <v>Lauku_AramZiemasRapsi_r500.tif</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AugludarziLAD_cell.tif</v>
+        <f>E118</f>
+        <v>Lauku_AramZiemasRapsi_r500.tif</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AugludarziLAD_r1250.tif</v>
+        <f>B119</f>
+        <v>Lauku_AugludarziLAD_cell.tif</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AugludarziLAD_r1250.tif</v>
+        <f>E119</f>
+        <v>Lauku_AugludarziLAD_cell.tif</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AugludarziLAD_r3000.tif</v>
+        <f>B120</f>
+        <v>Lauku_AugludarziLAD_r1250.tif</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AugludarziLAD_r3000.tif</v>
+        <f>E120</f>
+        <v>Lauku_AugludarziLAD_r1250.tif</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_AugludarziLAD_r500.tif</v>
+        <f>B121</f>
+        <v>Lauku_AugludarziLAD_r3000.tif</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_AugludarziLAD_r500.tif</v>
+        <f>E121</f>
+        <v>Lauku_AugludarziLAD_r3000.tif</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C122">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_Bloki_cell.tif</v>
+        <f>B122</f>
+        <v>Lauku_AugludarziLAD_r500.tif</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_Bloki_cell.tif</v>
+        <f>E122</f>
+        <v>Lauku_AugludarziLAD_r500.tif</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_Bloki_r10000.tif</v>
+        <f>B123</f>
+        <v>Lauku_Bloki_cell.tif</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_Bloki_r10000.tif</v>
+        <f>E123</f>
+        <v>Lauku_Bloki_cell.tif</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_Bloki_r1250.tif</v>
+        <f>B124</f>
+        <v>Lauku_Bloki_r10000.tif</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_Bloki_r1250.tif</v>
+        <f>E124</f>
+        <v>Lauku_Bloki_r10000.tif</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_Bloki_r3000.tif</v>
+        <f>B125</f>
+        <v>Lauku_Bloki_r1250.tif</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_Bloki_r3000.tif</v>
+        <f>E125</f>
+        <v>Lauku_Bloki_r1250.tif</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_Bloki_r500.tif</v>
+        <f>B126</f>
+        <v>Lauku_Bloki_r3000.tif</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_Bloki_r500.tif</v>
+        <f>E126</f>
+        <v>Lauku_Bloki_r3000.tif</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C127">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_KrumiLAD_cell.tif</v>
+        <f>B127</f>
+        <v>Lauku_Bloki_r500.tif</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_KrumiLAD_cell.tif</v>
+        <f>E127</f>
+        <v>Lauku_Bloki_r500.tif</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_KrumiLAD_r1250.tif</v>
+        <f>B128</f>
+        <v>Lauku_KrumiLAD_cell.tif</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_KrumiLAD_r1250.tif</v>
+        <f>E128</f>
+        <v>Lauku_KrumiLAD_cell.tif</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_KrumiLAD_r3000.tif</v>
+        <f>B129</f>
+        <v>Lauku_KrumiLAD_r1250.tif</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_KrumiLAD_r3000.tif</v>
+        <f>E129</f>
+        <v>Lauku_KrumiLAD_r1250.tif</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_KrumiLAD_r500.tif</v>
+        <f>B130</f>
+        <v>Lauku_KrumiLAD_r3000.tif</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_KrumiLAD_r500.tif</v>
+        <f>E130</f>
+        <v>Lauku_KrumiLAD_r3000.tif</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C131">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_Papuves_cell.tif</v>
+        <f>B131</f>
+        <v>Lauku_KrumiLAD_r500.tif</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_Papuves_cell.tif</v>
+        <f>E131</f>
+        <v>Lauku_KrumiLAD_r500.tif</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_Papuves_r10000.tif</v>
+        <f>B132</f>
+        <v>Lauku_Papuves_cell.tif</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_Papuves_r10000.tif</v>
+        <f>E132</f>
+        <v>Lauku_Papuves_cell.tif</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_Papuves_r1250.tif</v>
+        <f>B133</f>
+        <v>Lauku_Papuves_r10000.tif</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_Papuves_r1250.tif</v>
+        <f>E133</f>
+        <v>Lauku_Papuves_r10000.tif</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_Papuves_r3000.tif</v>
+        <f>B134</f>
+        <v>Lauku_Papuves_r1250.tif</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_Papuves_r3000.tif</v>
+        <f>E134</f>
+        <v>Lauku_Papuves_r1250.tif</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_Papuves_r500.tif</v>
+        <f>B135</f>
+        <v>Lauku_Papuves_r3000.tif</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_Papuves_r500.tif</v>
+        <f>E135</f>
+        <v>Lauku_Papuves_r3000.tif</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C136">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_ZalajiBezatbNELAD_cell.tif</v>
+        <f>B136</f>
+        <v>Lauku_Papuves_r500.tif</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_ZalajiBezatbNELAD_cell.tif</v>
+        <f>E136</f>
+        <v>Lauku_Papuves_r500.tif</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_ZalajiBezatbNELAD_r10000.tif</v>
+        <f>B137</f>
+        <v>Lauku_ZalajiBezatbNELAD_cell.tif</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_ZalajiBezatbNELAD_r10000.tif</v>
+        <f>E137</f>
+        <v>Lauku_ZalajiBezatbNELAD_cell.tif</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_ZalajiBezatbNELAD_r1250.tif</v>
+        <f>B138</f>
+        <v>Lauku_ZalajiBezatbNELAD_r10000.tif</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_ZalajiBezatbNELAD_r1250.tif</v>
+        <f>E138</f>
+        <v>Lauku_ZalajiBezatbNELAD_r10000.tif</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B139" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_ZalajiBezatbNELAD_r3000.tif</v>
+        <f>B139</f>
+        <v>Lauku_ZalajiBezatbNELAD_r1250.tif</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_ZalajiBezatbNELAD_r3000.tif</v>
+        <f>E139</f>
+        <v>Lauku_ZalajiBezatbNELAD_r1250.tif</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B140" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_ZalajiBezatbNELAD_r500.tif</v>
+        <f>B140</f>
+        <v>Lauku_ZalajiBezatbNELAD_r3000.tif</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_ZalajiBezatbNELAD_r500.tif</v>
+        <f>E140</f>
+        <v>Lauku_ZalajiBezatbNELAD_r3000.tif</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B141" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C141">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_ZalajiIlggadigie_cell.tif</v>
+        <f>B141</f>
+        <v>Lauku_ZalajiBezatbNELAD_r500.tif</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_ZalajiIlggadigie_cell.tif</v>
+        <f>E141</f>
+        <v>Lauku_ZalajiBezatbNELAD_r500.tif</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B142" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_ZalajiIlggadigie_r10000.tif</v>
+        <f>B142</f>
+        <v>Lauku_ZalajiIlggadigie_cell.tif</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_ZalajiIlggadigie_r10000.tif</v>
+        <f>E142</f>
+        <v>Lauku_ZalajiIlggadigie_cell.tif</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_ZalajiIlggadigie_r1250.tif</v>
+        <f>B143</f>
+        <v>Lauku_ZalajiIlggadigie_r10000.tif</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_ZalajiIlggadigie_r1250.tif</v>
+        <f>E143</f>
+        <v>Lauku_ZalajiIlggadigie_r10000.tif</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_ZalajiIlggadigie_r3000.tif</v>
+        <f>B144</f>
+        <v>Lauku_ZalajiIlggadigie_r1250.tif</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_ZalajiIlggadigie_r3000.tif</v>
+        <f>E144</f>
+        <v>Lauku_ZalajiIlggadigie_r1250.tif</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B145" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_ZalajiIlggadigie_r500.tif</v>
+        <f>B145</f>
+        <v>Lauku_ZalajiIlggadigie_r3000.tif</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_ZalajiIlggadigie_r500.tif</v>
+        <f>E145</f>
+        <v>Lauku_ZalajiIlggadigie_r3000.tif</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B146" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C146">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="4"/>
-        <v>Lauku_ZalajiKultivetie_cell.tif</v>
+        <f>B146</f>
+        <v>Lauku_ZalajiIlggadigie_r500.tif</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="5"/>
-        <v>Lauku_ZalajiKultivetie_cell.tif</v>
+        <f>E146</f>
+        <v>Lauku_ZalajiIlggadigie_r500.tif</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B147" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" ref="E147:E155" si="6">B147</f>
-        <v>Lauku_ZalajiKultivetie_r10000.tif</v>
+        <f>B147</f>
+        <v>Lauku_ZalajiKultivetie_cell.tif</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" ref="F147:F155" si="7">E147</f>
-        <v>Lauku_ZalajiKultivetie_r10000.tif</v>
+        <f>E147</f>
+        <v>Lauku_ZalajiKultivetie_cell.tif</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="6"/>
-        <v>Lauku_ZalajiKultivetie_r1250.tif</v>
+        <f>B148</f>
+        <v>Lauku_ZalajiKultivetie_r10000.tif</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="7"/>
-        <v>Lauku_ZalajiKultivetie_r1250.tif</v>
+        <f>E148</f>
+        <v>Lauku_ZalajiKultivetie_r10000.tif</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B149" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="6"/>
-        <v>Lauku_ZalajiKultivetie_r3000.tif</v>
+        <f>B149</f>
+        <v>Lauku_ZalajiKultivetie_r1250.tif</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="7"/>
-        <v>Lauku_ZalajiKultivetie_r3000.tif</v>
+        <f>E149</f>
+        <v>Lauku_ZalajiKultivetie_r1250.tif</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="6"/>
-        <v>Lauku_ZalajiKultivetie_r500.tif</v>
+        <f>B150</f>
+        <v>Lauku_ZalajiKultivetie_r3000.tif</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="7"/>
-        <v>Lauku_ZalajiKultivetie_r500.tif</v>
+        <f>E150</f>
+        <v>Lauku_ZalajiKultivetie_r3000.tif</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C151">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="6"/>
-        <v>Lauku_ZalajiVisi_cell.tif</v>
+        <f>B151</f>
+        <v>Lauku_ZalajiKultivetie_r500.tif</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="7"/>
-        <v>Lauku_ZalajiVisi_cell.tif</v>
+        <f>E151</f>
+        <v>Lauku_ZalajiKultivetie_r500.tif</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="6"/>
-        <v>Lauku_ZalajiVisi_r10000.tif</v>
+        <f>B152</f>
+        <v>Lauku_ZalajiVisi_cell.tif</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="7"/>
-        <v>Lauku_ZalajiVisi_r10000.tif</v>
+        <f>E152</f>
+        <v>Lauku_ZalajiVisi_cell.tif</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="6"/>
-        <v>Lauku_ZalajiVisi_r1250.tif</v>
+        <f>B153</f>
+        <v>Lauku_ZalajiVisi_r10000.tif</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="7"/>
-        <v>Lauku_ZalajiVisi_r1250.tif</v>
+        <f>E153</f>
+        <v>Lauku_ZalajiVisi_r10000.tif</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B154" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="6"/>
-        <v>Lauku_ZalajiVisi_r3000.tif</v>
+        <f>B154</f>
+        <v>Lauku_ZalajiVisi_r1250.tif</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="7"/>
-        <v>Lauku_ZalajiVisi_r3000.tif</v>
+        <f>E154</f>
+        <v>Lauku_ZalajiVisi_r1250.tif</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B155" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="6"/>
-        <v>Lauku_ZalajiVisi_r500.tif</v>
+        <f>B155</f>
+        <v>Lauku_ZalajiVisi_r3000.tif</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="7"/>
-        <v>Lauku_ZalajiVisi_r500.tif</v>
+        <f>E155</f>
+        <v>Lauku_ZalajiVisi_r3000.tif</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B156" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
-      <c r="E156" t="s">
-        <v>731</v>
-      </c>
-      <c r="F156" t="s">
-        <v>731</v>
+      <c r="E156" t="str">
+        <f>B156</f>
+        <v>Lauku_ZalajiVisi_r500.tif</v>
+      </c>
+      <c r="F156" t="str">
+        <f>E156</f>
+        <v>Lauku_ZalajiVisi_r500.tif</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="F157" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B158" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="F158" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B159" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="F159" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B160" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="F160" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B161" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
       <c r="E161" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="F161" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B162" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="F162" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
       <c r="F163" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B164" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
       <c r="F164" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="F165" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
-      <c r="E166" t="str">
-        <f t="shared" ref="E166:E180" si="8">B166</f>
-        <v>Malas_AramzemesY_cell.tif</v>
-      </c>
-      <c r="F166" t="str">
-        <f t="shared" ref="F166:F180" si="9">E166</f>
-        <v>Malas_AramzemesY_cell.tif</v>
+      <c r="E166" t="s">
+        <v>716</v>
+      </c>
+      <c r="F166" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B167" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_AramzemesY_r10000.tif</v>
+        <f>B167</f>
+        <v>Malas_AramzemesY_cell.tif</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_AramzemesY_r10000.tif</v>
+        <f>E167</f>
+        <v>Malas_AramzemesY_cell.tif</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B168" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_AramzemesY_r1250.tif</v>
+        <f>B168</f>
+        <v>Malas_AramzemesY_r10000.tif</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_AramzemesY_r1250.tif</v>
+        <f>E168</f>
+        <v>Malas_AramzemesY_r10000.tif</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_AramzemesY_r3000.tif</v>
+        <f>B169</f>
+        <v>Malas_AramzemesY_r1250.tif</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_AramzemesY_r3000.tif</v>
+        <f>E169</f>
+        <v>Malas_AramzemesY_r1250.tif</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B170" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C170">
         <v>2</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_AramzemesY_r500.tif</v>
+        <f>B170</f>
+        <v>Malas_AramzemesY_r3000.tif</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_AramzemesY_r500.tif</v>
+        <f>E170</f>
+        <v>Malas_AramzemesY_r3000.tif</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B171" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_Celi_cell.tif</v>
+        <f>B171</f>
+        <v>Malas_AramzemesY_r500.tif</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_Celi_cell.tif</v>
+        <f>E171</f>
+        <v>Malas_AramzemesY_r500.tif</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B172" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_Celi_r10000.tif</v>
+        <f>B172</f>
+        <v>Malas_Celi_cell.tif</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_Celi_r10000.tif</v>
+        <f>E172</f>
+        <v>Malas_Celi_cell.tif</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B173" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_Celi_r1250.tif</v>
+        <f>B173</f>
+        <v>Malas_Celi_r10000.tif</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_Celi_r1250.tif</v>
+        <f>E173</f>
+        <v>Malas_Celi_r10000.tif</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B174" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C174">
         <v>2</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_Celi_r3000.tif</v>
+        <f>B174</f>
+        <v>Malas_Celi_r1250.tif</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_Celi_r3000.tif</v>
+        <f>E174</f>
+        <v>Malas_Celi_r1250.tif</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B175" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C175">
         <v>2</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_Celi_r500.tif</v>
+        <f>B175</f>
+        <v>Malas_Celi_r3000.tif</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_Celi_r500.tif</v>
+        <f>E175</f>
+        <v>Malas_Celi_r3000.tif</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B176" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C176">
         <v>2</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_KokiY_cell.tif</v>
+        <f>B176</f>
+        <v>Malas_Celi_r500.tif</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_KokiY_cell.tif</v>
+        <f>E176</f>
+        <v>Malas_Celi_r500.tif</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B177" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_KokiY_r10000.tif</v>
+        <f>B177</f>
+        <v>Malas_KokiY_cell.tif</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_KokiY_r10000.tif</v>
+        <f>E177</f>
+        <v>Malas_KokiY_cell.tif</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B178" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_KokiY_r1250.tif</v>
+        <f>B178</f>
+        <v>Malas_KokiY_r10000.tif</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_KokiY_r1250.tif</v>
+        <f>E178</f>
+        <v>Malas_KokiY_r10000.tif</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B179" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_KokiY_r3000.tif</v>
+        <f>B179</f>
+        <v>Malas_KokiY_r1250.tif</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_KokiY_r3000.tif</v>
+        <f>E179</f>
+        <v>Malas_KokiY_r1250.tif</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="8"/>
-        <v>Malas_KokiY_r500.tif</v>
+        <f>B180</f>
+        <v>Malas_KokiY_r3000.tif</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" si="9"/>
-        <v>Malas_KokiY_r500.tif</v>
+        <f>E180</f>
+        <v>Malas_KokiY_r3000.tif</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
-      <c r="E181" t="s">
-        <v>721</v>
-      </c>
-      <c r="F181" t="s">
-        <v>721</v>
+      <c r="E181" t="str">
+        <f>B181</f>
+        <v>Malas_KokiY_r500.tif</v>
+      </c>
+      <c r="F181" t="str">
+        <f>E181</f>
+        <v>Malas_KokiY_r500.tif</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B182" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
       <c r="E182" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F182" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B183" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F183" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B184" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
       <c r="E184" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F184" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B185" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C185">
         <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F185" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B186" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C186">
         <v>2</v>
       </c>
       <c r="E186" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F186" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B187" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C187">
         <v>2</v>
       </c>
       <c r="E187" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F187" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B188" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C188">
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F188" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B189" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C189">
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F189" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B190" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C190">
         <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F190" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B191" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
-      <c r="E191" t="str">
-        <f t="shared" ref="E191:E195" si="10">B191</f>
-        <v>Malas_PieaugParaugY_cell.tif</v>
-      </c>
-      <c r="F191" t="str">
-        <f t="shared" ref="F191:F195" si="11">E191</f>
-        <v>Malas_PieaugParaugY_cell.tif</v>
+      <c r="E191" t="s">
+        <v>726</v>
+      </c>
+      <c r="F191" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B192" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="10"/>
-        <v>Malas_PieaugParaugY_r10000.tif</v>
+        <f>B192</f>
+        <v>Malas_PieaugParaugY_cell.tif</v>
       </c>
       <c r="F192" t="str">
-        <f t="shared" si="11"/>
-        <v>Malas_PieaugParaugY_r10000.tif</v>
+        <f>E192</f>
+        <v>Malas_PieaugParaugY_cell.tif</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B193" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C193">
         <v>2</v>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="10"/>
-        <v>Malas_PieaugParaugY_r1250.tif</v>
+        <f>B193</f>
+        <v>Malas_PieaugParaugY_r10000.tif</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" si="11"/>
-        <v>Malas_PieaugParaugY_r1250.tif</v>
+        <f>E193</f>
+        <v>Malas_PieaugParaugY_r10000.tif</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B194" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" si="10"/>
-        <v>Malas_PieaugParaugY_r3000.tif</v>
+        <f>B194</f>
+        <v>Malas_PieaugParaugY_r1250.tif</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" si="11"/>
-        <v>Malas_PieaugParaugY_r3000.tif</v>
+        <f>E194</f>
+        <v>Malas_PieaugParaugY_r1250.tif</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B195" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" si="10"/>
-        <v>Malas_PieaugParaugY_r500.tif</v>
+        <f>B195</f>
+        <v>Malas_PieaugParaugY_r3000.tif</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" si="11"/>
-        <v>Malas_PieaugParaugY_r500.tif</v>
+        <f>E195</f>
+        <v>Malas_PieaugParaugY_r3000.tif</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B196" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
-      <c r="E196" t="s">
-        <v>711</v>
-      </c>
-      <c r="F196" t="s">
-        <v>711</v>
+      <c r="E196" t="str">
+        <f>B196</f>
+        <v>Malas_PieaugParaugY_r500.tif</v>
+      </c>
+      <c r="F196" t="str">
+        <f>E196</f>
+        <v>Malas_PieaugParaugY_r500.tif</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="F197" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B198" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C198">
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="F198" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B199" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="F199" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B200" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
       <c r="E200" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="F200" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B201" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C201">
         <v>2</v>
       </c>
       <c r="E201" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="F201" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B202" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
       <c r="E202" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="F202" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B203" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C203">
         <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="F203" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B204" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C204">
         <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="F204" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B205" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="F205" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B206" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C206">
         <v>2</v>
       </c>
-      <c r="E206" t="str">
-        <f t="shared" ref="E206:E215" si="12">B206</f>
-        <v>Malas_UdensY_cell.tif</v>
-      </c>
-      <c r="F206" t="str">
-        <f t="shared" ref="F206:F215" si="13">E206</f>
-        <v>Malas_UdensY_cell.tif</v>
+      <c r="E206" t="s">
+        <v>736</v>
+      </c>
+      <c r="F206" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B207" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C207">
         <v>2</v>
       </c>
       <c r="E207" t="str">
-        <f t="shared" si="12"/>
-        <v>Malas_UdensY_r10000.tif</v>
+        <f>B207</f>
+        <v>Malas_UdensY_cell.tif</v>
       </c>
       <c r="F207" t="str">
-        <f t="shared" si="13"/>
-        <v>Malas_UdensY_r10000.tif</v>
+        <f>E207</f>
+        <v>Malas_UdensY_cell.tif</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B208" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C208">
         <v>2</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" si="12"/>
-        <v>Malas_UdensY_r1250.tif</v>
+        <f>B208</f>
+        <v>Malas_UdensY_r10000.tif</v>
       </c>
       <c r="F208" t="str">
-        <f t="shared" si="13"/>
-        <v>Malas_UdensY_r1250.tif</v>
+        <f>E208</f>
+        <v>Malas_UdensY_r10000.tif</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B209" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="12"/>
-        <v>Malas_UdensY_r3000.tif</v>
+        <f>B209</f>
+        <v>Malas_UdensY_r1250.tif</v>
       </c>
       <c r="F209" t="str">
-        <f t="shared" si="13"/>
-        <v>Malas_UdensY_r3000.tif</v>
+        <f>E209</f>
+        <v>Malas_UdensY_r1250.tif</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B210" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C210">
         <v>2</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" si="12"/>
-        <v>Malas_UdensY_r500.tif</v>
+        <f>B210</f>
+        <v>Malas_UdensY_r3000.tif</v>
       </c>
       <c r="F210" t="str">
-        <f t="shared" si="13"/>
-        <v>Malas_UdensY_r500.tif</v>
+        <f>E210</f>
+        <v>Malas_UdensY_r3000.tif</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B211" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C211">
         <v>2</v>
       </c>
       <c r="E211" t="str">
-        <f t="shared" si="12"/>
-        <v>Malas_ZalajiY_cell.tif</v>
+        <f>B211</f>
+        <v>Malas_UdensY_r500.tif</v>
       </c>
       <c r="F211" t="str">
-        <f t="shared" si="13"/>
-        <v>Malas_ZalajiY_cell.tif</v>
+        <f>E211</f>
+        <v>Malas_UdensY_r500.tif</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B212" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C212">
         <v>2</v>
       </c>
       <c r="E212" t="str">
-        <f t="shared" si="12"/>
-        <v>Malas_ZalajiY_r10000.tif</v>
+        <f>B212</f>
+        <v>Malas_ZalajiY_cell.tif</v>
       </c>
       <c r="F212" t="str">
-        <f t="shared" si="13"/>
-        <v>Malas_ZalajiY_r10000.tif</v>
+        <f>E212</f>
+        <v>Malas_ZalajiY_cell.tif</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B213" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C213">
         <v>2</v>
       </c>
       <c r="E213" t="str">
-        <f t="shared" si="12"/>
-        <v>Malas_ZalajiY_r1250.tif</v>
+        <f>B213</f>
+        <v>Malas_ZalajiY_r10000.tif</v>
       </c>
       <c r="F213" t="str">
-        <f t="shared" si="13"/>
-        <v>Malas_ZalajiY_r1250.tif</v>
+        <f>E213</f>
+        <v>Malas_ZalajiY_r10000.tif</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B214" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C214">
         <v>2</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" si="12"/>
-        <v>Malas_ZalajiY_r3000.tif</v>
+        <f>B214</f>
+        <v>Malas_ZalajiY_r1250.tif</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" si="13"/>
-        <v>Malas_ZalajiY_r3000.tif</v>
+        <f>E214</f>
+        <v>Malas_ZalajiY_r1250.tif</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B215" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C215">
         <v>2</v>
       </c>
       <c r="E215" t="str">
-        <f t="shared" si="12"/>
-        <v>Malas_ZalajiY_r500.tif</v>
+        <f>B215</f>
+        <v>Malas_ZalajiY_r3000.tif</v>
       </c>
       <c r="F215" t="str">
-        <f t="shared" si="13"/>
-        <v>Malas_ZalajiY_r500.tif</v>
+        <f>E215</f>
+        <v>Malas_ZalajiY_r3000.tif</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B216" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C216">
-        <v>1157</v>
-      </c>
-      <c r="E216" t="s">
-        <v>708</v>
-      </c>
-      <c r="F216" t="s">
-        <v>708</v>
+        <v>2</v>
+      </c>
+      <c r="E216" t="str">
+        <f>B216</f>
+        <v>Malas_ZalajiY_r500.tif</v>
+      </c>
+      <c r="F216" t="str">
+        <f>E216</f>
+        <v>Malas_ZalajiY_r500.tif</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B217" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C217">
         <v>1157</v>
       </c>
       <c r="E217" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="F217" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B218" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C218">
         <v>1157</v>
       </c>
       <c r="E218" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="F218" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B219" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C219">
-        <v>1158</v>
-      </c>
-      <c r="E219" t="str">
-        <f t="shared" ref="E219:E252" si="14">B219</f>
-        <v>Mezi_EitrPurv_cell.tif</v>
-      </c>
-      <c r="F219" t="str">
-        <f t="shared" ref="F219:F252" si="15">E219</f>
-        <v>Mezi_EitrPurv_cell.tif</v>
+        <v>1157</v>
+      </c>
+      <c r="E219" t="s">
+        <v>739</v>
+      </c>
+      <c r="F219" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B220" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E220" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_EitrPurv_r10000.tif</v>
+        <f>B220</f>
+        <v>Mezi_EitrPurv_cell.tif</v>
       </c>
       <c r="F220" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_EitrPurv_r10000.tif</v>
+        <f>E220</f>
+        <v>Mezi_EitrPurv_cell.tif</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B221" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C221">
         <v>2</v>
       </c>
       <c r="E221" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_EitrPurv_r1250.tif</v>
+        <f>B221</f>
+        <v>Mezi_EitrPurv_r10000.tif</v>
       </c>
       <c r="F221" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_EitrPurv_r1250.tif</v>
+        <f>E221</f>
+        <v>Mezi_EitrPurv_r10000.tif</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B222" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C222">
         <v>2</v>
       </c>
       <c r="E222" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_EitrPurv_r3000.tif</v>
+        <f>B222</f>
+        <v>Mezi_EitrPurv_r1250.tif</v>
       </c>
       <c r="F222" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_EitrPurv_r3000.tif</v>
+        <f>E222</f>
+        <v>Mezi_EitrPurv_r1250.tif</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B223" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C223">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E223" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_EitrSaus_cell.tif</v>
+        <f>B223</f>
+        <v>Mezi_EitrPurv_r3000.tif</v>
       </c>
       <c r="F223" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_EitrSaus_cell.tif</v>
+        <f>E223</f>
+        <v>Mezi_EitrPurv_r3000.tif</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B224" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E224" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_EitrSaus_r10000.tif</v>
+        <f>B224</f>
+        <v>Mezi_EitrSaus_cell.tif</v>
       </c>
       <c r="F224" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_EitrSaus_r10000.tif</v>
+        <f>E224</f>
+        <v>Mezi_EitrSaus_cell.tif</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B225" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
       <c r="E225" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_EitrSaus_r1250.tif</v>
+        <f>B225</f>
+        <v>Mezi_EitrSaus_r10000.tif</v>
       </c>
       <c r="F225" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_EitrSaus_r1250.tif</v>
+        <f>E225</f>
+        <v>Mezi_EitrSaus_r10000.tif</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B226" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
       <c r="E226" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_EitrSaus_r3000.tif</v>
+        <f>B226</f>
+        <v>Mezi_EitrSaus_r1250.tif</v>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_EitrSaus_r3000.tif</v>
+        <f>E226</f>
+        <v>Mezi_EitrSaus_r1250.tif</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B227" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C227">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E227" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_EitrSus_cell.tif</v>
+        <f>B227</f>
+        <v>Mezi_EitrSaus_r3000.tif</v>
       </c>
       <c r="F227" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_EitrSus_cell.tif</v>
+        <f>E227</f>
+        <v>Mezi_EitrSaus_r3000.tif</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B228" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E228" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_EitrSus_r10000.tif</v>
+        <f>B228</f>
+        <v>Mezi_EitrSus_cell.tif</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_EitrSus_r10000.tif</v>
+        <f>E228</f>
+        <v>Mezi_EitrSus_cell.tif</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B229" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C229">
         <v>2</v>
       </c>
       <c r="E229" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_EitrSus_r1250.tif</v>
+        <f>B229</f>
+        <v>Mezi_EitrSus_r10000.tif</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_EitrSus_r1250.tif</v>
+        <f>E229</f>
+        <v>Mezi_EitrSus_r10000.tif</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B230" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C230">
         <v>2</v>
       </c>
       <c r="E230" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_EitrSus_r3000.tif</v>
+        <f>B230</f>
+        <v>Mezi_EitrSus_r1250.tif</v>
       </c>
       <c r="F230" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_EitrSus_r3000.tif</v>
+        <f>E230</f>
+        <v>Mezi_EitrSus_r1250.tif</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B231" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C231">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E231" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_IzcUNzem5m_cell.tif</v>
+        <f>B231</f>
+        <v>Mezi_EitrSus_r3000.tif</v>
       </c>
       <c r="F231" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_IzcUNzem5m_cell.tif</v>
+        <f>E231</f>
+        <v>Mezi_EitrSus_r3000.tif</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B232" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E232" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_IzcUNzem5m_r10000.tif</v>
+        <f>B232</f>
+        <v>Mezi_IzcUNzem5m_cell.tif</v>
       </c>
       <c r="F232" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_IzcUNzem5m_r10000.tif</v>
+        <f>E232</f>
+        <v>Mezi_IzcUNzem5m_cell.tif</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B233" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C233">
         <v>2</v>
       </c>
       <c r="E233" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_IzcUNzem5m_r1250.tif</v>
+        <f>B233</f>
+        <v>Mezi_IzcUNzem5m_r10000.tif</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_IzcUNzem5m_r1250.tif</v>
+        <f>E233</f>
+        <v>Mezi_IzcUNzem5m_r10000.tif</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B234" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
       <c r="E234" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_IzcUNzem5m_r3000.tif</v>
+        <f>B234</f>
+        <v>Mezi_IzcUNzem5m_r1250.tif</v>
       </c>
       <c r="F234" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_IzcUNzem5m_r3000.tif</v>
+        <f>E234</f>
+        <v>Mezi_IzcUNzem5m_r1250.tif</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B235" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C235">
         <v>2</v>
       </c>
       <c r="E235" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_IzcUNzem5m_r500.tif</v>
+        <f>B235</f>
+        <v>Mezi_IzcUNzem5m_r3000.tif</v>
       </c>
       <c r="F235" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_IzcUNzem5m_r500.tif</v>
+        <f>E235</f>
+        <v>Mezi_IzcUNzem5m_r3000.tif</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B236" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C236">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E236" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_Jauktukoku_cell.tif</v>
+        <f>B236</f>
+        <v>Mezi_IzcUNzem5m_r500.tif</v>
       </c>
       <c r="F236" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_Jauktukoku_cell.tif</v>
+        <f>E236</f>
+        <v>Mezi_IzcUNzem5m_r500.tif</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B237" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E237" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_Jauktukoku_r10000.tif</v>
+        <f>B237</f>
+        <v>Mezi_Jauktukoku_cell.tif</v>
       </c>
       <c r="F237" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_Jauktukoku_r10000.tif</v>
+        <f>E237</f>
+        <v>Mezi_Jauktukoku_cell.tif</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B238" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C238">
         <v>2</v>
       </c>
       <c r="E238" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_Jauktukoku_r1250.tif</v>
+        <f>B238</f>
+        <v>Mezi_Jauktukoku_r10000.tif</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_Jauktukoku_r1250.tif</v>
+        <f>E238</f>
+        <v>Mezi_Jauktukoku_r10000.tif</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B239" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
       <c r="E239" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_Jauktukoku_r3000.tif</v>
+        <f>B239</f>
+        <v>Mezi_Jauktukoku_r1250.tif</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_Jauktukoku_r3000.tif</v>
+        <f>E239</f>
+        <v>Mezi_Jauktukoku_r1250.tif</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B240" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C240">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E240" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_JauktukokuJaunas_cell.tif</v>
+        <f>B240</f>
+        <v>Mezi_Jauktukoku_r3000.tif</v>
       </c>
       <c r="F240" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_JauktukokuJaunas_cell.tif</v>
+        <f>E240</f>
+        <v>Mezi_Jauktukoku_r3000.tif</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B241" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E241" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_JauktukokuJaunas_r1250.tif</v>
+        <f>B241</f>
+        <v>Mezi_JauktukokuJaunas_cell.tif</v>
       </c>
       <c r="F241" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_JauktukokuJaunas_r1250.tif</v>
+        <f>E241</f>
+        <v>Mezi_JauktukokuJaunas_cell.tif</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B242" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C242">
         <v>2</v>
       </c>
       <c r="E242" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_JauktukokuJaunas_r3000.tif</v>
+        <f>B242</f>
+        <v>Mezi_JauktukokuJaunas_r1250.tif</v>
       </c>
       <c r="F242" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_JauktukokuJaunas_r3000.tif</v>
+        <f>E242</f>
+        <v>Mezi_JauktukokuJaunas_r1250.tif</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B243" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C243">
         <v>2</v>
       </c>
       <c r="E243" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_JauktukokuJaunas_r500.tif</v>
+        <f>B243</f>
+        <v>Mezi_JauktukokuJaunas_r3000.tif</v>
       </c>
       <c r="F243" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_JauktukokuJaunas_r500.tif</v>
+        <f>E243</f>
+        <v>Mezi_JauktukokuJaunas_r3000.tif</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B244" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C244">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E244" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_JauktukokuVecas_cell.tif</v>
+        <f>B244</f>
+        <v>Mezi_JauktukokuJaunas_r500.tif</v>
       </c>
       <c r="F244" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_JauktukokuVecas_cell.tif</v>
+        <f>E244</f>
+        <v>Mezi_JauktukokuJaunas_r500.tif</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B245" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E245" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_JauktukokuVecas_r1250.tif</v>
+        <f>B245</f>
+        <v>Mezi_JauktukokuVecas_cell.tif</v>
       </c>
       <c r="F245" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_JauktukokuVecas_r1250.tif</v>
+        <f>E245</f>
+        <v>Mezi_JauktukokuVecas_cell.tif</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B246" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="E246" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_JauktukokuVecas_r3000.tif</v>
+        <f>B246</f>
+        <v>Mezi_JauktukokuVecas_r1250.tif</v>
       </c>
       <c r="F246" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_JauktukokuVecas_r3000.tif</v>
+        <f>E246</f>
+        <v>Mezi_JauktukokuVecas_r1250.tif</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B247" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="E247" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_JauktukokuVecas_r500.tif</v>
+        <f>B247</f>
+        <v>Mezi_JauktukokuVecas_r3000.tif</v>
       </c>
       <c r="F247" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_JauktukokuVecas_r500.tif</v>
+        <f>E247</f>
+        <v>Mezi_JauktukokuVecas_r3000.tif</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B248" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C248">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E248" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_Jaunaudzes5mKrumaji_cell.tif</v>
+        <f>B248</f>
+        <v>Mezi_JauktukokuVecas_r500.tif</v>
       </c>
       <c r="F248" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_Jaunaudzes5mKrumaji_cell.tif</v>
+        <f>E248</f>
+        <v>Mezi_JauktukokuVecas_r500.tif</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B249" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E249" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_Jaunaudzes5mKrumaji_r10000.tif</v>
+        <f>B249</f>
+        <v>Mezi_Jaunaudzes5mKrumaji_cell.tif</v>
       </c>
       <c r="F249" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_Jaunaudzes5mKrumaji_r10000.tif</v>
+        <f>E249</f>
+        <v>Mezi_Jaunaudzes5mKrumaji_cell.tif</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B250" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C250">
         <v>2</v>
       </c>
       <c r="E250" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_Jaunaudzes5mKrumaji_r1250.tif</v>
+        <f>B250</f>
+        <v>Mezi_Jaunaudzes5mKrumaji_r10000.tif</v>
       </c>
       <c r="F250" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_Jaunaudzes5mKrumaji_r1250.tif</v>
+        <f>E250</f>
+        <v>Mezi_Jaunaudzes5mKrumaji_r10000.tif</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B251" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C251">
         <v>2</v>
       </c>
       <c r="E251" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_Jaunaudzes5mKrumaji_r3000.tif</v>
+        <f>B251</f>
+        <v>Mezi_Jaunaudzes5mKrumaji_r1250.tif</v>
       </c>
       <c r="F251" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_Jaunaudzes5mKrumaji_r3000.tif</v>
+        <f>E251</f>
+        <v>Mezi_Jaunaudzes5mKrumaji_r1250.tif</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B252" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C252">
         <v>2</v>
       </c>
       <c r="E252" t="str">
-        <f t="shared" si="14"/>
-        <v>Mezi_Jaunaudzes5mKrumaji_r500.tif</v>
+        <f>B252</f>
+        <v>Mezi_Jaunaudzes5mKrumaji_r3000.tif</v>
       </c>
       <c r="F252" t="str">
-        <f t="shared" si="15"/>
-        <v>Mezi_Jaunaudzes5mKrumaji_r500.tif</v>
+        <f>E252</f>
+        <v>Mezi_Jaunaudzes5mKrumaji_r3000.tif</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B253" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C253">
-        <v>1157</v>
-      </c>
-      <c r="E253" t="s">
-        <v>705</v>
-      </c>
-      <c r="F253" t="s">
-        <v>705</v>
+        <v>2</v>
+      </c>
+      <c r="E253" t="str">
+        <f>B253</f>
+        <v>Mezi_Jaunaudzes5mKrumaji_r500.tif</v>
+      </c>
+      <c r="F253" t="str">
+        <f>E253</f>
+        <v>Mezi_Jaunaudzes5mKrumaji_r500.tif</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B254" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C254">
         <v>1157</v>
       </c>
       <c r="E254" t="s">
-        <v>706</v>
+        <v>740</v>
       </c>
       <c r="F254" t="s">
-        <v>706</v>
+        <v>740</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B255" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C255">
         <v>1157</v>
       </c>
       <c r="E255" t="s">
-        <v>707</v>
+        <v>741</v>
       </c>
       <c r="F255" t="s">
-        <v>707</v>
+        <v>741</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B256" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C256">
-        <v>1158</v>
-      </c>
-      <c r="E256" t="str">
-        <f t="shared" ref="E256:E259" si="16">B256</f>
-        <v>Mezi_MezoSaus_cell.tif</v>
-      </c>
-      <c r="F256" t="str">
-        <f t="shared" ref="F256:F259" si="17">E256</f>
-        <v>Mezi_MezoSaus_cell.tif</v>
+        <v>1157</v>
+      </c>
+      <c r="E256" t="s">
+        <v>742</v>
+      </c>
+      <c r="F256" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B257" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E257" t="str">
-        <f t="shared" si="16"/>
-        <v>Mezi_MezoSaus_r10000.tif</v>
+        <f>B257</f>
+        <v>Mezi_MezoSaus_cell.tif</v>
       </c>
       <c r="F257" t="str">
-        <f t="shared" si="17"/>
-        <v>Mezi_MezoSaus_r10000.tif</v>
+        <f>E257</f>
+        <v>Mezi_MezoSaus_cell.tif</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B258" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C258">
         <v>2</v>
       </c>
       <c r="E258" t="str">
-        <f t="shared" si="16"/>
-        <v>Mezi_MezoSaus_r1250.tif</v>
+        <f>B258</f>
+        <v>Mezi_MezoSaus_r10000.tif</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" si="17"/>
-        <v>Mezi_MezoSaus_r1250.tif</v>
+        <f>E258</f>
+        <v>Mezi_MezoSaus_r10000.tif</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B259" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C259">
         <v>2</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" si="16"/>
-        <v>Mezi_MezoSaus_r3000.tif</v>
+        <f>B259</f>
+        <v>Mezi_MezoSaus_r1250.tif</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" si="17"/>
-        <v>Mezi_MezoSaus_r3000.tif</v>
+        <f>E259</f>
+        <v>Mezi_MezoSaus_r1250.tif</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B260" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C260">
-        <v>1157</v>
-      </c>
-      <c r="E260" t="s">
-        <v>704</v>
-      </c>
-      <c r="F260" t="s">
-        <v>704</v>
+        <v>2</v>
+      </c>
+      <c r="E260" t="str">
+        <f>B260</f>
+        <v>Mezi_MezoSaus_r3000.tif</v>
+      </c>
+      <c r="F260" t="str">
+        <f>E260</f>
+        <v>Mezi_MezoSaus_r3000.tif</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B261" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C261">
-        <v>1158</v>
-      </c>
-      <c r="E261" t="str">
-        <f t="shared" ref="E261:E290" si="18">B261</f>
-        <v>Mezi_OligoPurv_cell.tif</v>
-      </c>
-      <c r="F261" t="str">
-        <f t="shared" ref="F261:F290" si="19">E261</f>
-        <v>Mezi_OligoPurv_cell.tif</v>
+        <v>1157</v>
+      </c>
+      <c r="E261" t="s">
+        <v>743</v>
+      </c>
+      <c r="F261" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B262" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_OligoPurv_r10000.tif</v>
+        <f>B262</f>
+        <v>Mezi_OligoPurv_cell.tif</v>
       </c>
       <c r="F262" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_OligoPurv_r10000.tif</v>
+        <f>E262</f>
+        <v>Mezi_OligoPurv_cell.tif</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B263" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C263">
         <v>2</v>
       </c>
       <c r="E263" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_OligoPurv_r1250.tif</v>
+        <f>B263</f>
+        <v>Mezi_OligoPurv_r10000.tif</v>
       </c>
       <c r="F263" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_OligoPurv_r1250.tif</v>
+        <f>E263</f>
+        <v>Mezi_OligoPurv_r10000.tif</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B264" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C264">
         <v>2</v>
       </c>
       <c r="E264" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_OligoPurv_r3000.tif</v>
+        <f>B264</f>
+        <v>Mezi_OligoPurv_r1250.tif</v>
       </c>
       <c r="F264" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_OligoPurv_r3000.tif</v>
+        <f>E264</f>
+        <v>Mezi_OligoPurv_r1250.tif</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B265" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C265">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E265" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_OligoSaus_cell.tif</v>
+        <f>B265</f>
+        <v>Mezi_OligoPurv_r3000.tif</v>
       </c>
       <c r="F265" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_OligoSaus_cell.tif</v>
+        <f>E265</f>
+        <v>Mezi_OligoPurv_r3000.tif</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B266" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E266" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_OligoSaus_r10000.tif</v>
+        <f>B266</f>
+        <v>Mezi_OligoSaus_cell.tif</v>
       </c>
       <c r="F266" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_OligoSaus_r10000.tif</v>
+        <f>E266</f>
+        <v>Mezi_OligoSaus_cell.tif</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B267" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C267">
         <v>2</v>
       </c>
       <c r="E267" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_OligoSaus_r1250.tif</v>
+        <f>B267</f>
+        <v>Mezi_OligoSaus_r10000.tif</v>
       </c>
       <c r="F267" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_OligoSaus_r1250.tif</v>
+        <f>E267</f>
+        <v>Mezi_OligoSaus_r10000.tif</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B268" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C268">
         <v>2</v>
       </c>
       <c r="E268" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_OligoSaus_r3000.tif</v>
+        <f>B268</f>
+        <v>Mezi_OligoSaus_r1250.tif</v>
       </c>
       <c r="F268" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_OligoSaus_r3000.tif</v>
+        <f>E268</f>
+        <v>Mezi_OligoSaus_r1250.tif</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B269" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C269">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E269" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_OligoSus_cell.tif</v>
+        <f>B269</f>
+        <v>Mezi_OligoSaus_r3000.tif</v>
       </c>
       <c r="F269" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_OligoSus_cell.tif</v>
+        <f>E269</f>
+        <v>Mezi_OligoSaus_r3000.tif</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B270" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E270" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_OligoSus_r10000.tif</v>
+        <f>B270</f>
+        <v>Mezi_OligoSus_cell.tif</v>
       </c>
       <c r="F270" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_OligoSus_r10000.tif</v>
+        <f>E270</f>
+        <v>Mezi_OligoSus_cell.tif</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B271" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C271">
         <v>2</v>
       </c>
       <c r="E271" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_OligoSus_r1250.tif</v>
+        <f>B271</f>
+        <v>Mezi_OligoSus_r10000.tif</v>
       </c>
       <c r="F271" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_OligoSus_r1250.tif</v>
+        <f>E271</f>
+        <v>Mezi_OligoSus_r10000.tif</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B272" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C272">
         <v>2</v>
       </c>
       <c r="E272" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_OligoSus_r3000.tif</v>
+        <f>B272</f>
+        <v>Mezi_OligoSus_r1250.tif</v>
       </c>
       <c r="F272" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_OligoSus_r3000.tif</v>
+        <f>E272</f>
+        <v>Mezi_OligoSus_r1250.tif</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B273" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C273">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E273" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PieaugParaug_cell.tif</v>
+        <f>B273</f>
+        <v>Mezi_OligoSus_r3000.tif</v>
       </c>
       <c r="F273" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PieaugParaug_cell.tif</v>
+        <f>E273</f>
+        <v>Mezi_OligoSus_r3000.tif</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B274" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E274" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PieaugParaug_r10000.tif</v>
+        <f>B274</f>
+        <v>Mezi_PieaugParaug_cell.tif</v>
       </c>
       <c r="F274" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PieaugParaug_r10000.tif</v>
+        <f>E274</f>
+        <v>Mezi_PieaugParaug_cell.tif</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B275" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C275">
         <v>2</v>
       </c>
       <c r="E275" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PieaugParaug_r1250.tif</v>
+        <f>B275</f>
+        <v>Mezi_PieaugParaug_r10000.tif</v>
       </c>
       <c r="F275" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PieaugParaug_r1250.tif</v>
+        <f>E275</f>
+        <v>Mezi_PieaugParaug_r10000.tif</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B276" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C276">
         <v>2</v>
       </c>
       <c r="E276" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PieaugParaug_r3000.tif</v>
+        <f>B276</f>
+        <v>Mezi_PieaugParaug_r1250.tif</v>
       </c>
       <c r="F276" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PieaugParaug_r3000.tif</v>
+        <f>E276</f>
+        <v>Mezi_PieaugParaug_r1250.tif</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B277" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C277">
         <v>2</v>
       </c>
       <c r="E277" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PieaugParaug_r500.tif</v>
+        <f>B277</f>
+        <v>Mezi_PieaugParaug_r3000.tif</v>
       </c>
       <c r="F277" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PieaugParaug_r500.tif</v>
+        <f>E277</f>
+        <v>Mezi_PieaugParaug_r3000.tif</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B278" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C278">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E278" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_Platlapju_cell.tif</v>
+        <f>B278</f>
+        <v>Mezi_PieaugParaug_r500.tif</v>
       </c>
       <c r="F278" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_Platlapju_cell.tif</v>
+        <f>E278</f>
+        <v>Mezi_PieaugParaug_r500.tif</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B279" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C279">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E279" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_Platlapju_r10000.tif</v>
+        <f>B279</f>
+        <v>Mezi_Platlapju_cell.tif</v>
       </c>
       <c r="F279" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_Platlapju_r10000.tif</v>
+        <f>E279</f>
+        <v>Mezi_Platlapju_cell.tif</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B280" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C280">
         <v>2</v>
       </c>
       <c r="E280" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_Platlapju_r1250.tif</v>
+        <f>B280</f>
+        <v>Mezi_Platlapju_r10000.tif</v>
       </c>
       <c r="F280" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_Platlapju_r1250.tif</v>
+        <f>E280</f>
+        <v>Mezi_Platlapju_r10000.tif</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B281" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C281">
         <v>2</v>
       </c>
       <c r="E281" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_Platlapju_r3000.tif</v>
+        <f>B281</f>
+        <v>Mezi_Platlapju_r1250.tif</v>
       </c>
       <c r="F281" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_Platlapju_r3000.tif</v>
+        <f>E281</f>
+        <v>Mezi_Platlapju_r1250.tif</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B282" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C282">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E282" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PlatlapjuJaunas_cell.tif</v>
+        <f>B282</f>
+        <v>Mezi_Platlapju_r3000.tif</v>
       </c>
       <c r="F282" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PlatlapjuJaunas_cell.tif</v>
+        <f>E282</f>
+        <v>Mezi_Platlapju_r3000.tif</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B283" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C283">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E283" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PlatlapjuJaunas_r1250.tif</v>
+        <f>B283</f>
+        <v>Mezi_PlatlapjuJaunas_cell.tif</v>
       </c>
       <c r="F283" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PlatlapjuJaunas_r1250.tif</v>
+        <f>E283</f>
+        <v>Mezi_PlatlapjuJaunas_cell.tif</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B284" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C284">
         <v>2</v>
       </c>
       <c r="E284" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PlatlapjuJaunas_r3000.tif</v>
+        <f>B284</f>
+        <v>Mezi_PlatlapjuJaunas_r1250.tif</v>
       </c>
       <c r="F284" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PlatlapjuJaunas_r3000.tif</v>
+        <f>E284</f>
+        <v>Mezi_PlatlapjuJaunas_r1250.tif</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B285" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C285">
         <v>2</v>
       </c>
       <c r="E285" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PlatlapjuJaunas_r500.tif</v>
+        <f>B285</f>
+        <v>Mezi_PlatlapjuJaunas_r3000.tif</v>
       </c>
       <c r="F285" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PlatlapjuJaunas_r500.tif</v>
+        <f>E285</f>
+        <v>Mezi_PlatlapjuJaunas_r3000.tif</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B286" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C286">
-        <v>1157</v>
-      </c>
-      <c r="E286" t="s">
-        <v>703</v>
-      </c>
-      <c r="F286" t="s">
-        <v>703</v>
+        <v>2</v>
+      </c>
+      <c r="E286" t="str">
+        <f>B286</f>
+        <v>Mezi_PlatlapjuJaunas_r500.tif</v>
+      </c>
+      <c r="F286" t="str">
+        <f>E286</f>
+        <v>Mezi_PlatlapjuJaunas_r500.tif</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B287" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C287">
-        <v>1158</v>
-      </c>
-      <c r="E287" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PlatlapjuVecas_cell.tif</v>
-      </c>
-      <c r="F287" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PlatlapjuVecas_cell.tif</v>
+        <v>1157</v>
+      </c>
+      <c r="E287" t="s">
+        <v>744</v>
+      </c>
+      <c r="F287" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B288" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C288">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E288" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PlatlapjuVecas_r1250.tif</v>
+        <f>B288</f>
+        <v>Mezi_PlatlapjuVecas_cell.tif</v>
       </c>
       <c r="F288" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PlatlapjuVecas_r1250.tif</v>
+        <f>E288</f>
+        <v>Mezi_PlatlapjuVecas_cell.tif</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B289" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C289">
         <v>2</v>
       </c>
       <c r="E289" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PlatlapjuVecas_r3000.tif</v>
+        <f>B289</f>
+        <v>Mezi_PlatlapjuVecas_r1250.tif</v>
       </c>
       <c r="F289" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PlatlapjuVecas_r3000.tif</v>
+        <f>E289</f>
+        <v>Mezi_PlatlapjuVecas_r1250.tif</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B290" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C290">
         <v>2</v>
       </c>
       <c r="E290" t="str">
-        <f t="shared" si="18"/>
-        <v>Mezi_PlatlapjuVecas_r500.tif</v>
+        <f>B290</f>
+        <v>Mezi_PlatlapjuVecas_r3000.tif</v>
       </c>
       <c r="F290" t="str">
-        <f t="shared" si="19"/>
-        <v>Mezi_PlatlapjuVecas_r500.tif</v>
+        <f>E290</f>
+        <v>Mezi_PlatlapjuVecas_r3000.tif</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B291" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C291">
-        <v>1157</v>
-      </c>
-      <c r="E291" t="s">
-        <v>702</v>
-      </c>
-      <c r="F291" t="s">
-        <v>702</v>
+        <v>2</v>
+      </c>
+      <c r="E291" t="str">
+        <f>B291</f>
+        <v>Mezi_PlatlapjuVecas_r500.tif</v>
+      </c>
+      <c r="F291" t="str">
+        <f>E291</f>
+        <v>Mezi_PlatlapjuVecas_r500.tif</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B292" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C292">
-        <v>1158</v>
-      </c>
-      <c r="E292" t="str">
-        <f t="shared" ref="E292:E295" si="20">B292</f>
-        <v>Mezi_Saurlapju_cell.tif</v>
-      </c>
-      <c r="F292" t="str">
-        <f t="shared" ref="F292:F295" si="21">E292</f>
-        <v>Mezi_Saurlapju_cell.tif</v>
+        <v>1157</v>
+      </c>
+      <c r="E292" t="s">
+        <v>745</v>
+      </c>
+      <c r="F292" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B293" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C293">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E293" t="str">
-        <f t="shared" si="20"/>
-        <v>Mezi_Saurlapju_r10000.tif</v>
+        <f>B293</f>
+        <v>Mezi_Saurlapju_cell.tif</v>
       </c>
       <c r="F293" t="str">
-        <f t="shared" si="21"/>
-        <v>Mezi_Saurlapju_r10000.tif</v>
+        <f>E293</f>
+        <v>Mezi_Saurlapju_cell.tif</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B294" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C294">
         <v>2</v>
       </c>
       <c r="E294" t="str">
-        <f t="shared" si="20"/>
-        <v>Mezi_Saurlapju_r1250.tif</v>
+        <f>B294</f>
+        <v>Mezi_Saurlapju_r10000.tif</v>
       </c>
       <c r="F294" t="str">
-        <f t="shared" si="21"/>
-        <v>Mezi_Saurlapju_r1250.tif</v>
+        <f>E294</f>
+        <v>Mezi_Saurlapju_r10000.tif</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B295" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C295">
         <v>2</v>
       </c>
       <c r="E295" t="str">
-        <f t="shared" si="20"/>
-        <v>Mezi_Saurlapju_r3000.tif</v>
+        <f>B295</f>
+        <v>Mezi_Saurlapju_r1250.tif</v>
       </c>
       <c r="F295" t="str">
-        <f t="shared" si="21"/>
-        <v>Mezi_Saurlapju_r3000.tif</v>
+        <f>E295</f>
+        <v>Mezi_Saurlapju_r1250.tif</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B296" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C296">
-        <v>1157</v>
-      </c>
-      <c r="E296" t="s">
-        <v>701</v>
-      </c>
-      <c r="F296" t="s">
-        <v>701</v>
+        <v>2</v>
+      </c>
+      <c r="E296" t="str">
+        <f>B296</f>
+        <v>Mezi_Saurlapju_r3000.tif</v>
+      </c>
+      <c r="F296" t="str">
+        <f>E296</f>
+        <v>Mezi_Saurlapju_r3000.tif</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B297" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C297">
-        <v>1158</v>
-      </c>
-      <c r="E297" t="str">
-        <f t="shared" ref="E297:E304" si="22">B297</f>
-        <v>Mezi_SaurlapjuJaunas_cell.tif</v>
-      </c>
-      <c r="F297" t="str">
-        <f t="shared" ref="F297:F304" si="23">E297</f>
-        <v>Mezi_SaurlapjuJaunas_cell.tif</v>
+        <v>1157</v>
+      </c>
+      <c r="E297" t="s">
+        <v>746</v>
+      </c>
+      <c r="F297" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B298" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C298">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E298" t="str">
-        <f t="shared" si="22"/>
-        <v>Mezi_SaurlapjuJaunas_r1250.tif</v>
+        <f>B298</f>
+        <v>Mezi_SaurlapjuJaunas_cell.tif</v>
       </c>
       <c r="F298" t="str">
-        <f t="shared" si="23"/>
-        <v>Mezi_SaurlapjuJaunas_r1250.tif</v>
+        <f>E298</f>
+        <v>Mezi_SaurlapjuJaunas_cell.tif</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B299" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C299">
         <v>2</v>
       </c>
       <c r="E299" t="str">
-        <f t="shared" si="22"/>
-        <v>Mezi_SaurlapjuJaunas_r3000.tif</v>
+        <f>B299</f>
+        <v>Mezi_SaurlapjuJaunas_r1250.tif</v>
       </c>
       <c r="F299" t="str">
-        <f t="shared" si="23"/>
-        <v>Mezi_SaurlapjuJaunas_r3000.tif</v>
+        <f>E299</f>
+        <v>Mezi_SaurlapjuJaunas_r1250.tif</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B300" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C300">
         <v>2</v>
       </c>
       <c r="E300" t="str">
-        <f t="shared" si="22"/>
-        <v>Mezi_SaurlapjuJaunas_r500.tif</v>
+        <f>B300</f>
+        <v>Mezi_SaurlapjuJaunas_r3000.tif</v>
       </c>
       <c r="F300" t="str">
-        <f t="shared" si="23"/>
-        <v>Mezi_SaurlapjuJaunas_r500.tif</v>
+        <f>E300</f>
+        <v>Mezi_SaurlapjuJaunas_r3000.tif</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B301" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C301">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E301" t="str">
-        <f t="shared" si="22"/>
-        <v>Mezi_SaurlapjuVecas_cell.tif</v>
+        <f>B301</f>
+        <v>Mezi_SaurlapjuJaunas_r500.tif</v>
       </c>
       <c r="F301" t="str">
-        <f t="shared" si="23"/>
-        <v>Mezi_SaurlapjuVecas_cell.tif</v>
+        <f>E301</f>
+        <v>Mezi_SaurlapjuJaunas_r500.tif</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B302" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C302">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E302" t="str">
-        <f t="shared" si="22"/>
-        <v>Mezi_SaurlapjuVecas_r1250.tif</v>
+        <f>B302</f>
+        <v>Mezi_SaurlapjuVecas_cell.tif</v>
       </c>
       <c r="F302" t="str">
-        <f t="shared" si="23"/>
-        <v>Mezi_SaurlapjuVecas_r1250.tif</v>
+        <f>E302</f>
+        <v>Mezi_SaurlapjuVecas_cell.tif</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B303" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C303">
         <v>2</v>
       </c>
       <c r="E303" t="str">
-        <f t="shared" si="22"/>
-        <v>Mezi_SaurlapjuVecas_r3000.tif</v>
+        <f>B303</f>
+        <v>Mezi_SaurlapjuVecas_r1250.tif</v>
       </c>
       <c r="F303" t="str">
-        <f t="shared" si="23"/>
-        <v>Mezi_SaurlapjuVecas_r3000.tif</v>
+        <f>E303</f>
+        <v>Mezi_SaurlapjuVecas_r1250.tif</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B304" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C304">
         <v>2</v>
       </c>
       <c r="E304" t="str">
-        <f t="shared" si="22"/>
-        <v>Mezi_SaurlapjuVecas_r500.tif</v>
+        <f>B304</f>
+        <v>Mezi_SaurlapjuVecas_r3000.tif</v>
       </c>
       <c r="F304" t="str">
-        <f t="shared" si="23"/>
-        <v>Mezi_SaurlapjuVecas_r500.tif</v>
+        <f>E304</f>
+        <v>Mezi_SaurlapjuVecas_r3000.tif</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B305" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C305">
-        <v>1157</v>
-      </c>
-      <c r="E305" t="s">
-        <v>700</v>
-      </c>
-      <c r="F305" t="s">
-        <v>700</v>
+        <v>2</v>
+      </c>
+      <c r="E305" t="str">
+        <f>B305</f>
+        <v>Mezi_SaurlapjuVecas_r500.tif</v>
+      </c>
+      <c r="F305" t="str">
+        <f>E305</f>
+        <v>Mezi_SaurlapjuVecas_r500.tif</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B306" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C306">
-        <v>1158</v>
-      </c>
-      <c r="E306" t="str">
-        <f t="shared" ref="E306:E313" si="24">B306</f>
-        <v>Mezi_Skujkoku_cell.tif</v>
-      </c>
-      <c r="F306" t="str">
-        <f t="shared" ref="F306:F313" si="25">E306</f>
-        <v>Mezi_Skujkoku_cell.tif</v>
+        <v>1157</v>
+      </c>
+      <c r="E306" t="s">
+        <v>747</v>
+      </c>
+      <c r="F306" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B307" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C307">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E307" t="str">
-        <f t="shared" si="24"/>
-        <v>Mezi_Skujkoku_r10000.tif</v>
+        <f>B307</f>
+        <v>Mezi_Skujkoku_cell.tif</v>
       </c>
       <c r="F307" t="str">
-        <f t="shared" si="25"/>
-        <v>Mezi_Skujkoku_r10000.tif</v>
+        <f>E307</f>
+        <v>Mezi_Skujkoku_cell.tif</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B308" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C308">
         <v>2</v>
       </c>
       <c r="E308" t="str">
-        <f t="shared" si="24"/>
-        <v>Mezi_Skujkoku_r1250.tif</v>
+        <f>B308</f>
+        <v>Mezi_Skujkoku_r10000.tif</v>
       </c>
       <c r="F308" t="str">
-        <f t="shared" si="25"/>
-        <v>Mezi_Skujkoku_r1250.tif</v>
+        <f>E308</f>
+        <v>Mezi_Skujkoku_r10000.tif</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B309" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C309">
         <v>2</v>
       </c>
       <c r="E309" t="str">
-        <f t="shared" si="24"/>
-        <v>Mezi_Skujkoku_r3000.tif</v>
+        <f>B309</f>
+        <v>Mezi_Skujkoku_r1250.tif</v>
       </c>
       <c r="F309" t="str">
-        <f t="shared" si="25"/>
-        <v>Mezi_Skujkoku_r3000.tif</v>
+        <f>E309</f>
+        <v>Mezi_Skujkoku_r1250.tif</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B310" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C310">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E310" t="str">
-        <f t="shared" si="24"/>
-        <v>Mezi_SkujkokuJaunas_cell.tif</v>
+        <f>B310</f>
+        <v>Mezi_Skujkoku_r3000.tif</v>
       </c>
       <c r="F310" t="str">
-        <f t="shared" si="25"/>
-        <v>Mezi_SkujkokuJaunas_cell.tif</v>
+        <f>E310</f>
+        <v>Mezi_Skujkoku_r3000.tif</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B311" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C311">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E311" t="str">
-        <f t="shared" si="24"/>
-        <v>Mezi_SkujkokuJaunas_r1250.tif</v>
+        <f>B311</f>
+        <v>Mezi_SkujkokuJaunas_cell.tif</v>
       </c>
       <c r="F311" t="str">
-        <f t="shared" si="25"/>
-        <v>Mezi_SkujkokuJaunas_r1250.tif</v>
+        <f>E311</f>
+        <v>Mezi_SkujkokuJaunas_cell.tif</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B312" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C312">
         <v>2</v>
       </c>
       <c r="E312" t="str">
-        <f t="shared" si="24"/>
-        <v>Mezi_SkujkokuJaunas_r3000.tif</v>
+        <f>B312</f>
+        <v>Mezi_SkujkokuJaunas_r1250.tif</v>
       </c>
       <c r="F312" t="str">
-        <f t="shared" si="25"/>
-        <v>Mezi_SkujkokuJaunas_r3000.tif</v>
+        <f>E312</f>
+        <v>Mezi_SkujkokuJaunas_r1250.tif</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B313" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C313">
         <v>2</v>
       </c>
       <c r="E313" t="str">
-        <f t="shared" si="24"/>
-        <v>Mezi_SkujkokuJaunas_r500.tif</v>
+        <f>B313</f>
+        <v>Mezi_SkujkokuJaunas_r3000.tif</v>
       </c>
       <c r="F313" t="str">
-        <f t="shared" si="25"/>
-        <v>Mezi_SkujkokuJaunas_r500.tif</v>
+        <f>E313</f>
+        <v>Mezi_SkujkokuJaunas_r3000.tif</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B314" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C314">
-        <v>1157</v>
-      </c>
-      <c r="E314" t="s">
-        <v>699</v>
-      </c>
-      <c r="F314" t="s">
-        <v>699</v>
+        <v>2</v>
+      </c>
+      <c r="E314" t="str">
+        <f>B314</f>
+        <v>Mezi_SkujkokuJaunas_r500.tif</v>
+      </c>
+      <c r="F314" t="str">
+        <f>E314</f>
+        <v>Mezi_SkujkokuJaunas_r500.tif</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B315" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C315">
-        <v>1158</v>
-      </c>
-      <c r="E315" t="str">
-        <f t="shared" ref="E315:E318" si="26">B315</f>
-        <v>Mezi_SkujkokuVecas_cell.tif</v>
-      </c>
-      <c r="F315" t="str">
-        <f t="shared" ref="F315:F318" si="27">E315</f>
-        <v>Mezi_SkujkokuVecas_cell.tif</v>
+        <v>1157</v>
+      </c>
+      <c r="E315" t="s">
+        <v>748</v>
+      </c>
+      <c r="F315" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B316" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C316">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E316" t="str">
-        <f t="shared" si="26"/>
-        <v>Mezi_SkujkokuVecas_r1250.tif</v>
+        <f>B316</f>
+        <v>Mezi_SkujkokuVecas_cell.tif</v>
       </c>
       <c r="F316" t="str">
-        <f t="shared" si="27"/>
-        <v>Mezi_SkujkokuVecas_r1250.tif</v>
+        <f>E316</f>
+        <v>Mezi_SkujkokuVecas_cell.tif</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B317" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C317">
         <v>2</v>
       </c>
       <c r="E317" t="str">
-        <f t="shared" si="26"/>
-        <v>Mezi_SkujkokuVecas_r3000.tif</v>
+        <f>B317</f>
+        <v>Mezi_SkujkokuVecas_r1250.tif</v>
       </c>
       <c r="F317" t="str">
-        <f t="shared" si="27"/>
-        <v>Mezi_SkujkokuVecas_r3000.tif</v>
+        <f>E317</f>
+        <v>Mezi_SkujkokuVecas_r1250.tif</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B318" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C318">
         <v>2</v>
       </c>
       <c r="E318" t="str">
-        <f t="shared" si="26"/>
-        <v>Mezi_SkujkokuVecas_r500.tif</v>
+        <f>B318</f>
+        <v>Mezi_SkujkokuVecas_r3000.tif</v>
       </c>
       <c r="F318" t="str">
-        <f t="shared" si="27"/>
-        <v>Mezi_SkujkokuVecas_r500.tif</v>
+        <f>E318</f>
+        <v>Mezi_SkujkokuVecas_r3000.tif</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B319" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C319">
-        <v>1157</v>
-      </c>
-      <c r="E319" t="s">
-        <v>697</v>
-      </c>
-      <c r="F319" t="s">
-        <v>697</v>
+        <v>2</v>
+      </c>
+      <c r="E319" t="str">
+        <f>B319</f>
+        <v>Mezi_SkujkokuVecas_r500.tif</v>
+      </c>
+      <c r="F319" t="str">
+        <f>E319</f>
+        <v>Mezi_SkujkokuVecas_r500.tif</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B320" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C320">
         <v>1157</v>
       </c>
       <c r="E320" t="s">
-        <v>698</v>
+        <v>749</v>
       </c>
       <c r="F320" t="s">
-        <v>698</v>
+        <v>749</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B321" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C321">
-        <v>1158</v>
-      </c>
-      <c r="E321" t="str">
-        <f t="shared" ref="E321:E325" si="28">B321</f>
-        <v>Mezi_VidejasBriestaudzes_cell.tif</v>
-      </c>
-      <c r="F321" t="str">
-        <f t="shared" ref="F321:F325" si="29">E321</f>
-        <v>Mezi_VidejasBriestaudzes_cell.tif</v>
+        <v>1157</v>
+      </c>
+      <c r="E321" t="s">
+        <v>750</v>
+      </c>
+      <c r="F321" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B322" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C322">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E322" t="str">
-        <f t="shared" si="28"/>
-        <v>Mezi_VidejasBriestaudzes_r10000.tif</v>
+        <f>B322</f>
+        <v>Mezi_VidejasBriestaudzes_cell.tif</v>
       </c>
       <c r="F322" t="str">
-        <f t="shared" si="29"/>
-        <v>Mezi_VidejasBriestaudzes_r10000.tif</v>
+        <f>E322</f>
+        <v>Mezi_VidejasBriestaudzes_cell.tif</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B323" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C323">
         <v>2</v>
       </c>
       <c r="E323" t="str">
-        <f t="shared" si="28"/>
-        <v>Mezi_VidejasBriestaudzes_r1250.tif</v>
+        <f>B323</f>
+        <v>Mezi_VidejasBriestaudzes_r10000.tif</v>
       </c>
       <c r="F323" t="str">
-        <f t="shared" si="29"/>
-        <v>Mezi_VidejasBriestaudzes_r1250.tif</v>
+        <f>E323</f>
+        <v>Mezi_VidejasBriestaudzes_r10000.tif</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B324" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C324">
         <v>2</v>
       </c>
       <c r="E324" t="str">
-        <f t="shared" si="28"/>
-        <v>Mezi_VidejasBriestaudzes_r3000.tif</v>
+        <f>B324</f>
+        <v>Mezi_VidejasBriestaudzes_r1250.tif</v>
       </c>
       <c r="F324" t="str">
-        <f t="shared" si="29"/>
-        <v>Mezi_VidejasBriestaudzes_r3000.tif</v>
+        <f>E324</f>
+        <v>Mezi_VidejasBriestaudzes_r1250.tif</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B325" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C325">
         <v>2</v>
       </c>
       <c r="E325" t="str">
-        <f t="shared" si="28"/>
-        <v>Mezi_VidejasBriestaudzes_r500.tif</v>
+        <f>B325</f>
+        <v>Mezi_VidejasBriestaudzes_r3000.tif</v>
       </c>
       <c r="F325" t="str">
-        <f t="shared" si="29"/>
-        <v>Mezi_VidejasBriestaudzes_r500.tif</v>
+        <f>E325</f>
+        <v>Mezi_VidejasBriestaudzes_r3000.tif</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B326" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C326">
-        <v>2196</v>
-      </c>
-      <c r="E326" t="s">
-        <v>686</v>
-      </c>
-      <c r="F326" t="s">
-        <v>686</v>
+        <v>2</v>
+      </c>
+      <c r="E326" t="str">
+        <f>B326</f>
+        <v>Mezi_VidejasBriestaudzes_r500.tif</v>
+      </c>
+      <c r="F326" t="str">
+        <f>E326</f>
+        <v>Mezi_VidejasBriestaudzes_r500.tif</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B327" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C327">
         <v>2196</v>
       </c>
       <c r="E327" t="s">
-        <v>687</v>
+        <v>751</v>
       </c>
       <c r="F327" t="s">
-        <v>687</v>
+        <v>751</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B328" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C328">
-        <v>1158</v>
+        <v>2196</v>
       </c>
       <c r="E328" t="s">
-        <v>688</v>
+        <v>752</v>
       </c>
       <c r="F328" t="s">
-        <v>688</v>
+        <v>752</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B329" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C329">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E329" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
       <c r="F329" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B330" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C330">
         <v>2</v>
       </c>
       <c r="E330" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
       <c r="F330" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B331" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C331">
         <v>2</v>
       </c>
       <c r="E331" t="s">
-        <v>691</v>
+        <v>755</v>
       </c>
       <c r="F331" t="s">
-        <v>691</v>
+        <v>755</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B332" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C332">
         <v>2</v>
       </c>
       <c r="E332" t="s">
-        <v>692</v>
+        <v>756</v>
       </c>
       <c r="F332" t="s">
-        <v>692</v>
+        <v>756</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B333" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C333">
-        <v>1158</v>
+        <v>2</v>
       </c>
       <c r="E333" t="s">
-        <v>693</v>
+        <v>757</v>
       </c>
       <c r="F333" t="s">
-        <v>693</v>
+        <v>757</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B334" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C334">
         <v>1158</v>
       </c>
       <c r="E334" t="s">
-        <v>694</v>
+        <v>758</v>
       </c>
       <c r="F334" t="s">
-        <v>694</v>
+        <v>758</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B335" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C335">
-        <v>2196</v>
+        <v>1158</v>
       </c>
       <c r="E335" t="s">
-        <v>695</v>
+        <v>759</v>
       </c>
       <c r="F335" t="s">
-        <v>695</v>
+        <v>759</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B336" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C336">
         <v>2196</v>
       </c>
       <c r="E336" t="s">
-        <v>696</v>
+        <v>760</v>
       </c>
       <c r="F336" t="s">
-        <v>696</v>
+        <v>760</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B337" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C337">
-        <v>1158</v>
+        <v>2196</v>
       </c>
       <c r="E337" t="s">
-        <v>684</v>
+        <v>761</v>
       </c>
       <c r="F337" t="s">
-        <v>684</v>
+        <v>761</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B338" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C338">
-        <v>2</v>
+        <v>1158</v>
       </c>
       <c r="E338" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
       <c r="F338" t="s">
-        <v>685</v>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>678</v>
+      </c>
+      <c r="B339" t="s">
+        <v>679</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="E339" t="s">
+        <v>763</v>
+      </c>
+      <c r="F339" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
